--- a/measures/2 master measures/text/instructions_surveillance.xlsx
+++ b/measures/2 master measures/text/instructions_surveillance.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\OSF\measures\text\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="480" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="11115" yWindow="480" windowWidth="26820" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -60,9 +65,6 @@
     <t>For this task, the target creature is Shelmet:</t>
   </si>
   <si>
-    <t>For this task, the target creature is Palpitoad:</t>
-  </si>
-  <si>
     <t>For this task, the target creature is Magearna:</t>
   </si>
   <si>
@@ -76,10 +78,6 @@
   </si>
   <si>
     <t>instructions_text_bottom</t>
-  </si>
-  <si>
-    <t>So whenever Crandios (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Crandio or the word CRANDIOS. 
-Press the spacebar to start the task</t>
   </si>
   <si>
     <t>So whenever Shelmet (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Shelmet or the word SHELMET. 
@@ -94,14 +92,21 @@
 Press the spacebar to start the task</t>
   </si>
   <si>
-    <t>So whenever Palpitoad (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Palpitoad or the word PALPITOAD. 
+    <t>So whenever Golett (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Golett or the word GOLETT. 
+Press the spacebar to start the task</t>
+  </si>
+  <si>
+    <t>For this task, the target creature is Golett:</t>
+  </si>
+  <si>
+    <t>So whenever Crandios (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Crandios or the word CRANDIOS. 
 Press the spacebar to start the task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -956,7 +961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -967,22 +972,22 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -991,12 +996,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="119">
+    <row r="2" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1005,12 +1010,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="119">
+    <row r="3" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -1019,12 +1024,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="119">
+    <row r="4" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1033,12 +1038,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="119">
+    <row r="5" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1047,12 +1052,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="119">
+    <row r="6" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1061,13 +1066,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
   </sheetData>

--- a/measures/2 master measures/text/instructions_surveillance.xlsx
+++ b/measures/2 master measures/text/instructions_surveillance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\OSF\measures\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tal moran\Documents\GitHub\unconscious-ec-RRR\measures\2 master measures\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB55B70A-C2BE-4F3B-B49E-BDC4F7F541B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="480" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -71,9 +72,6 @@
     <t>For this task, the target creature is Grubbin:</t>
   </si>
   <si>
-    <t>For this task, the target creature is Crandios:</t>
-  </si>
-  <si>
     <t>instructions_text_top</t>
   </si>
   <si>
@@ -99,14 +97,17 @@
     <t>For this task, the target creature is Golett:</t>
   </si>
   <si>
-    <t>So whenever Crandios (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Crandios or the word CRANDIOS. 
+    <t>For this task, the target creature is Cranidos:</t>
+  </si>
+  <si>
+    <t>So whenever Cranidos (his name or his picture) appears on the screen, hit the spacebar as quickly as possible. Hit the spacebar whenever you see an image of Cranidos or the word CRANIDOS. 
 Press the spacebar to start the task</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -968,26 +969,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="40.58203125" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -996,9 +997,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>23</v>
@@ -1010,12 +1011,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -1024,12 +1025,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
@@ -1038,12 +1039,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1052,12 +1053,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1066,13 +1067,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
